--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MONTANA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MONTANA_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C21">
@@ -778,7 +778,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C29">
@@ -822,7 +822,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C32">
@@ -835,7 +835,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C33">
@@ -892,7 +892,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C37">
@@ -923,7 +923,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C39">
@@ -1524,7 +1524,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C81">
@@ -1667,76 +1667,6 @@
       </c>
       <c r="D91">
         <v>1</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 826,856</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Junio de 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2017/MONTANA_2017.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2017/MONTANA_2017.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Janos</t>
@@ -548,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -750,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Cocula</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -934,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -947,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tomatlán</t>
@@ -973,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Villa Corona</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1017,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Apatzingán</t>
@@ -1030,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Charo</t>
@@ -1043,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1100,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1131,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1144,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1175,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1188,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -1201,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1232,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1263,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Mocorito</t>
@@ -1276,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1307,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1338,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1369,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -1382,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -1395,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1426,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San José Teacalco</t>
@@ -1439,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1470,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Alpatláhuac</t>
@@ -1483,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -1496,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -1509,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -1522,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -1535,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -1548,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -1561,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1574,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1605,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Fresnillo</t>
@@ -1618,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -1631,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Miguel Auza</t>
@@ -1644,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Total</t>
